--- a/output/target.xlsx
+++ b/output/target.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -416,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,31 +421,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>42</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44501.47748092766</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Elasticsearch: cool. bonsai cool.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>kimchy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2021-11-01T14:22:42.613307</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>Elasticsearch: cool. bonsai cool.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>kimchy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2021-11-01T14:22:42.613307</t>
         </is>
       </c>
     </row>

--- a/output/target.xlsx
+++ b/output/target.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -44,15 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,41 +424,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>42</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Elasticsearch: cool. bonsai cool.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>kimchy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2021-11-01T14:22:42.613307</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>44501.95059119916</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elasticsearch: cool. bonsai cool.</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kimchy</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2021-11-01T14:22:42.613307</t>
+          <t>222</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>